--- a/src/assets/data/7_Gestion de Infraestructura/Formatos/GI-FOR-004 Registro de hallazgos para mantenimiento.xlsx
+++ b/src/assets/data/7_Gestion de Infraestructura/Formatos/GI-FOR-004 Registro de hallazgos para mantenimiento.xlsx
@@ -522,7 +522,7 @@
     <xdr:ext cx="247650" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -550,7 +550,7 @@
     <xdr:ext cx="142875" cy="190500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -28494,6 +28494,10 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:I4"/>
+    <mergeCell ref="B1:D4"/>
+    <mergeCell ref="E1:G2"/>
+    <mergeCell ref="E3:G4"/>
     <mergeCell ref="H10:J11"/>
     <mergeCell ref="C10:E10"/>
     <mergeCell ref="B10:B11"/>
@@ -28501,10 +28505,6 @@
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H1:I4"/>
-    <mergeCell ref="B1:D4"/>
-    <mergeCell ref="E1:G2"/>
-    <mergeCell ref="E3:G4"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
